--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -367,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -414,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="3">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -460,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -569,10 +587,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -616,28 +634,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="3">
+      <c r="C17" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -662,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -771,10 +789,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -818,28 +836,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="3">
+      <c r="C24" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -864,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1002,10 +1020,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1049,28 +1067,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="3">
+      <c r="A32" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="3">
+      <c r="C32" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1095,28 +1113,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="3">
+      <c r="B34" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="C34" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="D34" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="F34" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="3">
+      <c r="G34" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="3">
+      <c r="H34" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="3">
+      <c r="I34" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1233,10 +1251,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="3" t="s">
+      <c r="J38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1280,28 +1298,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="3">
+      <c r="A40" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="3">
+      <c r="C40" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1326,28 +1344,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="3">
+      <c r="B42" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="3">
+      <c r="C42" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="3">
+      <c r="D42" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="3">
+      <c r="F42" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="3">
+      <c r="G42" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="3">
+      <c r="H42" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="3">
+      <c r="I42" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1464,10 +1482,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="3" t="s">
+      <c r="J46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1511,28 +1529,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="3">
+      <c r="A48" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="3">
+      <c r="B48" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="3">
+      <c r="C48" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="E48" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="3">
+      <c r="F48" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="3">
+      <c r="G48" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="3">
+      <c r="H48" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1557,28 +1575,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="C50" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="D50" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="3">
+      <c r="I50" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1695,10 +1713,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="3" t="s">
+      <c r="J54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1742,28 +1760,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="3">
+      <c r="A56" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="3">
+      <c r="C56" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1788,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="3">
+      <c r="I58" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1926,10 +1944,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="3" t="s">
+      <c r="J62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1973,28 +1991,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="3">
+      <c r="A64" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="3">
+      <c r="C64" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2019,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="3">
+      <c r="C66" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="3">
+      <c r="D66" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="3">
+      <c r="I66" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2128,10 +2146,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="3" t="s">
+      <c r="J69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2175,28 +2193,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="3">
+      <c r="A71" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="3">
+      <c r="B71" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="3">
+      <c r="C71" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="3">
+      <c r="F71" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="3">
+      <c r="G71" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="3">
+      <c r="H71" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2221,28 +2239,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="3">
+      <c r="C73" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="3">
+      <c r="D73" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="3">
+      <c r="I73" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2330,10 +2348,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="3" t="s">
+      <c r="J76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2377,28 +2395,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="3">
+      <c r="A78" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="3">
+      <c r="B78" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="3">
+      <c r="C78" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="3">
+      <c r="G78" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="3">
+      <c r="H78" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2423,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="3">
+      <c r="C80" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="3">
+      <c r="D80" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="3">
+      <c r="I80" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2532,10 +2550,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="J83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2579,28 +2597,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="3">
+      <c r="C85" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2625,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2734,10 +2752,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="J90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2781,28 +2799,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="3">
+      <c r="A92" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="3">
+      <c r="B92" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="3">
+      <c r="C92" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="3">
+      <c r="E92" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="3">
+      <c r="F92" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="3">
+      <c r="G92" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="3">
+      <c r="H92" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2827,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="3">
+      <c r="I94" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2936,10 +2954,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="J97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2983,28 +3001,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="3">
+      <c r="C99" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3029,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3167,10 +3185,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="3" t="s">
+      <c r="J105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3214,28 +3232,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="3">
+      <c r="A107" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="3">
+      <c r="B107" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="3">
+      <c r="C107" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="3">
+      <c r="E107" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="3">
+      <c r="F107" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="3">
+      <c r="G107" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="3">
+      <c r="H107" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3260,28 +3278,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="3">
+      <c r="C109" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="3">
+      <c r="D109" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="3">
+      <c r="I109" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3369,10 +3387,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="3" t="s">
+      <c r="J112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3416,28 +3434,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="3">
+      <c r="A114" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="3">
+      <c r="C114" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3462,28 +3480,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="3">
+      <c r="C116" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="3">
+      <c r="D116" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="3">
+      <c r="I116" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3600,10 +3618,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="3" t="s">
+      <c r="J120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3647,28 +3665,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="A122" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="3">
+      <c r="C122" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3693,28 +3711,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="3">
+      <c r="I124" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3831,10 +3849,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="3" t="s">
+      <c r="J128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3878,28 +3896,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="3">
+      <c r="C130" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3924,28 +3942,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4033,10 +4051,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="3" t="s">
+      <c r="J135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4080,28 +4098,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="3">
+      <c r="A137" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="3">
+      <c r="B137" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="3">
+      <c r="C137" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="3">
+      <c r="E137" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="3">
+      <c r="F137" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="3">
+      <c r="G137" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="3">
+      <c r="H137" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4126,28 +4144,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="3">
+      <c r="C139" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="3">
+      <c r="D139" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="3">
+      <c r="I139" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4264,10 +4282,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="3" t="s">
+      <c r="J143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4311,28 +4329,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="3">
+      <c r="A145" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="3">
+      <c r="C145" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4357,28 +4375,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="3">
+      <c r="I147" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4466,10 +4484,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="3" t="s">
+      <c r="J150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4513,28 +4531,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="3">
+      <c r="A152" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="3">
+      <c r="C152" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4559,28 +4577,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="3">
+      <c r="C154" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="3">
+      <c r="D154" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="3">
+      <c r="I154" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4668,10 +4686,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="3" t="s">
+      <c r="J157" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4715,28 +4733,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="3">
+      <c r="A159" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="3">
+      <c r="C159" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4761,28 +4779,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="3">
+      <c r="B161" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="3">
+      <c r="C161" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="3">
+      <c r="D161" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="3">
+      <c r="E161" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="3">
+      <c r="F161" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="3">
+      <c r="G161" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="3">
+      <c r="H161" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="3">
+      <c r="I161" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4870,10 +4888,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="3" t="s">
+      <c r="J164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4917,28 +4935,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="3">
+      <c r="A166" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="3">
+      <c r="C166" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4963,28 +4981,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="3">
+      <c r="I168" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5072,10 +5090,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="3" t="s">
+      <c r="J171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5119,28 +5137,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="3">
+      <c r="A173" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="3">
+      <c r="C173" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5165,28 +5183,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="3">
+      <c r="C175" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="3">
+      <c r="D175" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="3">
+      <c r="I175" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5303,10 +5321,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="3" t="s">
+      <c r="J179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5350,28 +5368,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="3">
+      <c r="A181" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="3">
+      <c r="C181" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5396,28 +5414,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="3">
+      <c r="B183" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="3">
+      <c r="C183" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="3">
+      <c r="D183" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="3">
+      <c r="E183" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="3">
+      <c r="F183" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="3">
+      <c r="G183" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="3">
+      <c r="H183" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="3">
+      <c r="I183" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5505,10 +5523,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="3" t="s">
+      <c r="J186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5552,28 +5570,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="3">
+      <c r="A188" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="3">
+      <c r="B188" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="3">
+      <c r="C188" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="3">
+      <c r="E188" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="3">
+      <c r="F188" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="3">
+      <c r="G188" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="3">
+      <c r="H188" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5598,28 +5616,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="3">
+      <c r="B190" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="3">
+      <c r="C190" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="3">
+      <c r="D190" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="3">
+      <c r="E190" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="3">
+      <c r="F190" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="3">
+      <c r="G190" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="3">
+      <c r="H190" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="3">
+      <c r="I190" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5707,10 +5725,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="3" t="s">
+      <c r="J193" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5754,28 +5772,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="3">
+      <c r="A195" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="3">
+      <c r="B195" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="3">
+      <c r="C195" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="3">
+      <c r="E195" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="3">
+      <c r="F195" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="3">
+      <c r="G195" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="3">
+      <c r="H195" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5800,28 +5818,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="3">
+      <c r="B197" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="3">
+      <c r="C197" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="3">
+      <c r="D197" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="3">
+      <c r="E197" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="3">
+      <c r="F197" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="3">
+      <c r="G197" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="3">
+      <c r="H197" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="3">
+      <c r="I197" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5909,10 +5927,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="3" t="s">
+      <c r="J200" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5956,28 +5974,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="3">
+      <c r="A202" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="3">
+      <c r="C202" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6002,28 +6020,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="3">
+      <c r="B204" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="3">
+      <c r="C204" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="3">
+      <c r="D204" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="3">
+      <c r="E204" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="3">
+      <c r="F204" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="3">
+      <c r="G204" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="3">
+      <c r="H204" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="3">
+      <c r="I204" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6111,10 +6129,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="3" t="s">
+      <c r="J207" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6158,28 +6176,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="3">
+      <c r="A209" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="3">
+      <c r="C209" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6204,28 +6222,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="3">
+      <c r="B211" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="3">
+      <c r="C211" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="3">
+      <c r="D211" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="3">
+      <c r="E211" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="F211" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="3">
+      <c r="G211" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="3">
+      <c r="H211" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="3">
+      <c r="I211" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6313,10 +6331,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="3" t="s">
+      <c r="J214" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6360,28 +6378,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="3">
+      <c r="A216" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="3">
+      <c r="C216" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6406,28 +6424,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="3">
+      <c r="B218" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="3">
+      <c r="C218" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="3">
+      <c r="D218" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="3">
+      <c r="E218" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="F218" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="3">
+      <c r="G218" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="3">
+      <c r="H218" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="3">
+      <c r="I218" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6515,10 +6533,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="3" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6562,28 +6580,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="3">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="3">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6608,28 +6626,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="3">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="3">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="3">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="3">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="3">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="3">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="3">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="3">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6746,10 +6764,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="3" t="s">
+      <c r="J229" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6793,28 +6811,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="3">
+      <c r="A231" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="3">
+      <c r="B231" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="3">
+      <c r="C231" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="3">
+      <c r="E231" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="3">
+      <c r="F231" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="3">
+      <c r="G231" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="3">
+      <c r="H231" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6839,28 +6857,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="3">
+      <c r="B233" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="3">
+      <c r="C233" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="3">
+      <c r="D233" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="3">
+      <c r="E233" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="3">
+      <c r="F233" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="3">
+      <c r="G233" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="3">
+      <c r="H233" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="3">
+      <c r="I233" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6948,10 +6966,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="3" t="s">
+      <c r="J236" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -6995,28 +7013,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="3">
+      <c r="A238" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="3">
+      <c r="B238" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="3">
+      <c r="C238" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="3">
+      <c r="E238" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="3">
+      <c r="F238" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="3">
+      <c r="G238" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="3">
+      <c r="H238" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7041,28 +7059,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="3">
+      <c r="B240" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="3">
+      <c r="C240" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="3">
+      <c r="D240" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="3">
+      <c r="E240" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="3">
+      <c r="F240" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="3">
+      <c r="G240" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="3">
+      <c r="H240" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="3">
+      <c r="I240" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7150,10 +7168,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="3" t="s">
+      <c r="J243" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7197,28 +7215,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="3">
+      <c r="A245" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="3">
+      <c r="B245" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="3">
+      <c r="C245" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="3">
+      <c r="E245" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="3">
+      <c r="F245" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="3">
+      <c r="G245" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="3">
+      <c r="H245" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7243,28 +7261,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="3">
+      <c r="B247" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="3">
+      <c r="C247" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="3">
+      <c r="D247" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="3">
+      <c r="E247" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="3">
+      <c r="F247" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="3">
+      <c r="G247" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="3">
+      <c r="H247" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="3">
+      <c r="I247" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7352,10 +7370,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="3" t="s">
+      <c r="J250" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7399,28 +7417,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="3">
+      <c r="A252" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="3">
+      <c r="B252" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="3">
+      <c r="C252" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="3">
+      <c r="E252" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="3">
+      <c r="F252" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="3">
+      <c r="G252" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="3">
+      <c r="H252" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7445,28 +7463,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="3">
+      <c r="B254" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="3">
+      <c r="C254" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="3">
+      <c r="D254" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="3">
+      <c r="E254" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="3">
+      <c r="F254" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="3">
+      <c r="G254" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="3">
+      <c r="H254" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="3">
+      <c r="I254" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7554,10 +7572,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="3" t="s">
+      <c r="J257" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7601,28 +7619,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="3">
+      <c r="A259" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="3">
+      <c r="B259" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="3">
+      <c r="C259" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="3">
+      <c r="E259" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="3">
+      <c r="F259" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="3">
+      <c r="G259" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="3">
+      <c r="H259" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7647,28 +7665,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="3">
+      <c r="B261" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="3">
+      <c r="C261" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="3">
+      <c r="D261" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="3">
+      <c r="E261" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="3">
+      <c r="F261" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="3">
+      <c r="G261" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="3">
+      <c r="H261" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="3">
+      <c r="I261" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7756,10 +7774,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="3" t="s">
+      <c r="J264" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7803,28 +7821,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="3">
+      <c r="A266" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="3">
+      <c r="B266" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="3">
+      <c r="C266" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="3">
+      <c r="E266" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="3">
+      <c r="F266" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="3">
+      <c r="G266" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="3">
+      <c r="H266" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7849,28 +7867,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="3">
+      <c r="B268" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="3">
+      <c r="C268" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="3">
+      <c r="D268" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="3">
+      <c r="E268" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="3">
+      <c r="F268" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="3">
+      <c r="G268" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="3">
+      <c r="H268" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="3">
+      <c r="I268" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7958,10 +7976,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="3" t="s">
+      <c r="J271" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8005,28 +8023,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="3">
+      <c r="A273" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="3">
+      <c r="B273" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="3">
+      <c r="C273" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="3">
+      <c r="E273" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="3">
+      <c r="F273" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="3">
+      <c r="G273" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="3">
+      <c r="H273" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8051,28 +8069,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="3">
+      <c r="B275" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="3">
+      <c r="C275" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="3">
+      <c r="D275" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="3">
+      <c r="E275" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="3">
+      <c r="F275" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="3">
+      <c r="G275" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="3">
+      <c r="H275" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="3">
+      <c r="I275" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8160,10 +8178,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="3" t="s">
+      <c r="J278" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8207,28 +8225,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="3">
+      <c r="A280" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="3">
+      <c r="B280" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="3">
+      <c r="C280" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="3">
+      <c r="E280" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="3">
+      <c r="F280" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="3">
+      <c r="G280" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="3">
+      <c r="H280" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8253,28 +8271,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="3">
+      <c r="B282" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="3">
+      <c r="C282" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="3">
+      <c r="D282" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="3">
+      <c r="E282" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="3">
+      <c r="F282" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="3">
+      <c r="G282" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="3">
+      <c r="H282" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="3">
+      <c r="I282" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8362,10 +8380,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="3" t="s">
+      <c r="J285" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8409,28 +8427,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="3">
+      <c r="A287" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="3">
+      <c r="B287" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="3">
+      <c r="C287" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="3">
+      <c r="E287" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="3">
+      <c r="F287" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="3">
+      <c r="G287" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="3">
+      <c r="H287" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8455,28 +8473,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="3">
+      <c r="B289" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="3">
+      <c r="C289" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="3">
+      <c r="D289" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="3">
+      <c r="E289" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="3">
+      <c r="F289" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="3">
+      <c r="G289" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="3">
+      <c r="H289" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="3">
+      <c r="I289" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8535,10 +8553,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="3" t="s">
+      <c r="J291" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8582,28 +8600,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="3">
+      <c r="A293" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="3">
+      <c r="B293" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="3">
+      <c r="C293" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="3">
+      <c r="E293" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="3">
+      <c r="F293" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="3">
+      <c r="G293" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="3">
+      <c r="H293" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8628,28 +8646,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="3">
+      <c r="B295" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="3">
+      <c r="C295" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="3">
+      <c r="D295" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="3">
+      <c r="E295" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="3">
+      <c r="F295" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="3">
+      <c r="G295" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="3">
+      <c r="H295" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="3">
+      <c r="I295" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8737,10 +8755,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="3" t="s">
+      <c r="J298" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8784,28 +8802,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="3">
+      <c r="A300" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="3">
+      <c r="B300" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="3">
+      <c r="C300" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="3">
+      <c r="E300" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="3">
+      <c r="F300" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="3">
+      <c r="G300" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="3">
+      <c r="H300" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -8830,28 +8848,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="3">
+      <c r="B302" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="3">
+      <c r="C302" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="3">
+      <c r="D302" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="3">
+      <c r="E302" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="3">
+      <c r="F302" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="3">
+      <c r="G302" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="3">
+      <c r="H302" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="3">
+      <c r="I302" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -8939,10 +8957,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="3" t="s">
+      <c r="J305" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -8986,28 +9004,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="3">
+      <c r="A307" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="3">
+      <c r="B307" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="3">
+      <c r="C307" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="3">
+      <c r="E307" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="3">
+      <c r="F307" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="3">
+      <c r="G307" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="3">
+      <c r="H307" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9032,28 +9050,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="3">
+      <c r="B309" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="3">
+      <c r="C309" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="3">
+      <c r="D309" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="3">
+      <c r="E309" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="3">
+      <c r="F309" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="3">
+      <c r="G309" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="3">
+      <c r="H309" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="3">
+      <c r="I309" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9141,10 +9159,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="3" t="s">
+      <c r="J312" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9188,28 +9206,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="3">
+      <c r="A314" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="3">
+      <c r="B314" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="3">
+      <c r="C314" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="3">
+      <c r="E314" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="3">
+      <c r="F314" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="3">
+      <c r="G314" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="3">
+      <c r="H314" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9234,28 +9252,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="3">
+      <c r="B316" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="3">
+      <c r="C316" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="3">
+      <c r="D316" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="3">
+      <c r="E316" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="3">
+      <c r="F316" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="3">
+      <c r="G316" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="3">
+      <c r="H316" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="3">
+      <c r="I316" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9372,10 +9390,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="3" t="s">
+      <c r="J320" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9419,28 +9437,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="3">
+      <c r="A322" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="3">
+      <c r="B322" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="3">
+      <c r="C322" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="3">
+      <c r="E322" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="3">
+      <c r="F322" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="3">
+      <c r="G322" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="3">
+      <c r="H322" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -9465,28 +9483,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="3">
+      <c r="B324" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="3">
+      <c r="C324" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="3">
+      <c r="D324" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="3">
+      <c r="E324" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="3">
+      <c r="F324" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="3">
+      <c r="G324" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="3">
+      <c r="H324" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="3">
+      <c r="I324" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -9545,10 +9563,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="3" t="s">
+      <c r="J326" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4956" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11564" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -153,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -161,6 +201,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -183,26 +231,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true">
-      <c r="A1" t="s" s="6">
+    <row r="1" s="14" customFormat="true">
+      <c r="A1" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="6">
+      <c r="B1" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="6">
+      <c r="C1" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="6">
+      <c r="D1" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="6">
+      <c r="E1" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="6">
+      <c r="G1" t="s" s="14">
         <v>7</v>
       </c>
     </row>
@@ -230,28 +278,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="6">
+      <c r="C3" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="6">
+      <c r="E3" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="6">
+      <c r="F3" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="6">
+      <c r="H3" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -276,28 +324,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="6">
+      <c r="C5" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="6">
+      <c r="D5" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="6">
+      <c r="E5" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="6">
+      <c r="F5" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="6">
+      <c r="H5" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="6">
+      <c r="I5" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -385,10 +433,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -432,28 +480,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="6">
+      <c r="A10" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="6">
+      <c r="C10" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="6">
+      <c r="E10" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="6">
+      <c r="F10" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="6">
+      <c r="G10" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="6">
+      <c r="H10" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -478,28 +526,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="6">
+      <c r="C12" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="6">
+      <c r="D12" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="6">
+      <c r="E12" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="6">
+      <c r="F12" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="6">
+      <c r="G12" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="6">
+      <c r="H12" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="6">
+      <c r="I12" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -587,10 +635,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="J15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -634,28 +682,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="6">
+      <c r="A17" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="B17" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="6">
+      <c r="C17" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="6">
+      <c r="E17" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="6">
+      <c r="F17" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="6">
+      <c r="G17" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="6">
+      <c r="H17" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -680,28 +728,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="6">
+      <c r="B19" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="6">
+      <c r="C19" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="6">
+      <c r="D19" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="6">
+      <c r="E19" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="6">
+      <c r="F19" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="6">
+      <c r="G19" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="6">
+      <c r="H19" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="6">
+      <c r="I19" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -789,10 +837,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="J22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -836,28 +884,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="6">
+      <c r="A24" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="B24" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="6">
+      <c r="C24" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="6">
+      <c r="E24" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="6">
+      <c r="F24" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="6">
+      <c r="G24" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="6">
+      <c r="H24" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -882,28 +930,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="6">
+      <c r="B26" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="6">
+      <c r="C26" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="6">
+      <c r="D26" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="6">
+      <c r="E26" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="6">
+      <c r="F26" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="6">
+      <c r="G26" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="6">
+      <c r="H26" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="6">
+      <c r="I26" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1020,10 +1068,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="6" t="s">
+      <c r="J30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1067,28 +1115,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="6">
+      <c r="A32" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="6">
+      <c r="B32" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="6">
+      <c r="C32" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="6">
+      <c r="E32" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="6">
+      <c r="F32" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="6">
+      <c r="G32" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="6">
+      <c r="H32" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1113,28 +1161,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="6">
+      <c r="B34" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="6">
+      <c r="C34" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="6">
+      <c r="D34" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="6">
+      <c r="E34" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="6">
+      <c r="F34" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="6">
+      <c r="G34" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="6">
+      <c r="H34" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="6">
+      <c r="I34" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1251,10 +1299,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="J38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1298,28 +1346,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="6">
+      <c r="A40" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="6">
+      <c r="B40" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="6">
+      <c r="C40" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="6">
+      <c r="E40" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="6">
+      <c r="F40" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="6">
+      <c r="G40" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="6">
+      <c r="H40" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1344,28 +1392,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="6">
+      <c r="B42" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="6">
+      <c r="C42" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="6">
+      <c r="D42" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="6">
+      <c r="E42" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="6">
+      <c r="F42" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="6">
+      <c r="G42" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="6">
+      <c r="H42" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="6">
+      <c r="I42" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1482,10 +1530,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="6" t="s">
+      <c r="J46" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1529,28 +1577,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="6">
+      <c r="A48" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="6">
+      <c r="B48" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="6">
+      <c r="C48" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="6">
+      <c r="E48" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="6">
+      <c r="F48" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="6">
+      <c r="G48" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="6">
+      <c r="H48" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1575,28 +1623,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="6">
+      <c r="B50" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="6">
+      <c r="C50" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="6">
+      <c r="D50" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="6">
+      <c r="E50" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="6">
+      <c r="F50" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="6">
+      <c r="G50" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="6">
+      <c r="H50" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="6">
+      <c r="I50" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1713,10 +1761,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="6" t="s">
+      <c r="J54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1760,28 +1808,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="6">
+      <c r="A56" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="6">
+      <c r="B56" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="6">
+      <c r="C56" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="6">
+      <c r="E56" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="6">
+      <c r="F56" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="6">
+      <c r="G56" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="6">
+      <c r="H56" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -1806,28 +1854,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="6">
+      <c r="B58" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="6">
+      <c r="C58" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="6">
+      <c r="D58" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="6">
+      <c r="E58" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="6">
+      <c r="F58" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="6">
+      <c r="G58" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="6">
+      <c r="H58" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="6">
+      <c r="I58" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -1944,10 +1992,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="6" t="s">
+      <c r="J62" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1991,28 +2039,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="6">
+      <c r="A64" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="6">
+      <c r="B64" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="6">
+      <c r="C64" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="6">
+      <c r="E64" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="6">
+      <c r="F64" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="6">
+      <c r="G64" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="6">
+      <c r="H64" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2037,28 +2085,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="6">
+      <c r="B66" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="6">
+      <c r="C66" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="6">
+      <c r="D66" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="6">
+      <c r="E66" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="6">
+      <c r="F66" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="6">
+      <c r="G66" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="6">
+      <c r="H66" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="6">
+      <c r="I66" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2146,10 +2194,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="6" t="s">
+      <c r="J69" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2193,28 +2241,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="6">
+      <c r="A71" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="6">
+      <c r="B71" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="6">
+      <c r="C71" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="6">
+      <c r="E71" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="6">
+      <c r="F71" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="6">
+      <c r="G71" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="6">
+      <c r="H71" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2239,28 +2287,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="6">
+      <c r="B73" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="6">
+      <c r="C73" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="6">
+      <c r="D73" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="6">
+      <c r="E73" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="6">
+      <c r="F73" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="6">
+      <c r="G73" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="6">
+      <c r="H73" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="6">
+      <c r="I73" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2348,10 +2396,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="6" t="s">
+      <c r="J76" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2395,28 +2443,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="6">
+      <c r="A78" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="6">
+      <c r="B78" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="6">
+      <c r="C78" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="6">
+      <c r="E78" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="6">
+      <c r="F78" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="6">
+      <c r="G78" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="6">
+      <c r="H78" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2441,28 +2489,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="6">
+      <c r="B80" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="6">
+      <c r="C80" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="6">
+      <c r="D80" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="6">
+      <c r="E80" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="6">
+      <c r="F80" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="6">
+      <c r="G80" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="6">
+      <c r="H80" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="6">
+      <c r="I80" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2550,10 +2598,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="6" t="s">
+      <c r="J83" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2597,28 +2645,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="6">
+      <c r="A85" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="6">
+      <c r="B85" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="6">
+      <c r="C85" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="6">
+      <c r="E85" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="6">
+      <c r="F85" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="6">
+      <c r="G85" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="6">
+      <c r="H85" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2643,28 +2691,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="6">
+      <c r="B87" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="6">
+      <c r="C87" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="6">
+      <c r="D87" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="6">
+      <c r="E87" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="6">
+      <c r="F87" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="6">
+      <c r="G87" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="6">
+      <c r="H87" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="6">
+      <c r="I87" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2752,10 +2800,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="6" t="s">
+      <c r="J90" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2799,28 +2847,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="6">
+      <c r="A92" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="6">
+      <c r="B92" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="6">
+      <c r="C92" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="6">
+      <c r="E92" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="6">
+      <c r="F92" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="6">
+      <c r="G92" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="6">
+      <c r="H92" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -2845,28 +2893,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="6">
+      <c r="B94" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="6">
+      <c r="C94" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="6">
+      <c r="D94" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="6">
+      <c r="E94" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="6">
+      <c r="F94" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="6">
+      <c r="G94" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="6">
+      <c r="H94" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="6">
+      <c r="I94" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -2954,10 +3002,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="6" t="s">
+      <c r="J97" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -3001,28 +3049,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="6">
+      <c r="A99" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="6">
+      <c r="B99" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="6">
+      <c r="C99" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="6">
+      <c r="E99" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="6">
+      <c r="F99" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="6">
+      <c r="G99" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="6">
+      <c r="H99" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3047,28 +3095,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="6">
+      <c r="B101" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="6">
+      <c r="C101" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="6">
+      <c r="D101" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="6">
+      <c r="E101" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="6">
+      <c r="F101" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="6">
+      <c r="G101" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="6">
+      <c r="H101" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="6">
+      <c r="I101" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3185,10 +3233,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="6" t="s">
+      <c r="J105" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3232,28 +3280,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="6">
+      <c r="A107" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="6">
+      <c r="B107" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="6">
+      <c r="C107" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="6">
+      <c r="E107" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="6">
+      <c r="F107" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="6">
+      <c r="G107" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="6">
+      <c r="H107" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3278,28 +3326,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="6">
+      <c r="B109" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="6">
+      <c r="C109" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="6">
+      <c r="D109" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="6">
+      <c r="E109" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="6">
+      <c r="F109" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="6">
+      <c r="G109" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="6">
+      <c r="H109" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="6">
+      <c r="I109" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3387,10 +3435,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="6" t="s">
+      <c r="J112" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3434,28 +3482,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="6">
+      <c r="A114" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="6">
+      <c r="B114" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="6">
+      <c r="C114" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="6">
+      <c r="E114" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="6">
+      <c r="F114" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="6">
+      <c r="G114" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="6">
+      <c r="H114" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3480,28 +3528,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="6">
+      <c r="B116" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="6">
+      <c r="C116" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="6">
+      <c r="D116" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="6">
+      <c r="E116" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="6">
+      <c r="F116" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="6">
+      <c r="G116" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="6">
+      <c r="H116" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="6">
+      <c r="I116" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3618,10 +3666,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="6" t="s">
+      <c r="J120" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3665,28 +3713,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="6">
+      <c r="A122" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="6">
+      <c r="B122" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="6">
+      <c r="C122" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="6">
+      <c r="E122" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="6">
+      <c r="F122" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="6">
+      <c r="G122" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="6">
+      <c r="H122" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3711,28 +3759,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="6">
+      <c r="B124" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="6">
+      <c r="C124" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="6">
+      <c r="D124" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="6">
+      <c r="E124" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="6">
+      <c r="F124" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="6">
+      <c r="G124" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="6">
+      <c r="H124" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="6">
+      <c r="I124" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -3849,10 +3897,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="6" t="s">
+      <c r="J128" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3896,28 +3944,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="6">
+      <c r="A130" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="6">
+      <c r="B130" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="6">
+      <c r="C130" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="6">
+      <c r="E130" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="6">
+      <c r="F130" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="6">
+      <c r="G130" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="6">
+      <c r="H130" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -3942,28 +3990,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="6">
+      <c r="B132" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="6">
+      <c r="C132" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="6">
+      <c r="D132" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="6">
+      <c r="E132" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="6">
+      <c r="F132" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="6">
+      <c r="G132" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="6">
+      <c r="H132" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="6">
+      <c r="I132" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4051,10 +4099,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="6" t="s">
+      <c r="J135" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4098,28 +4146,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="6">
+      <c r="A137" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="6">
+      <c r="B137" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="6">
+      <c r="C137" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="6">
+      <c r="E137" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="6">
+      <c r="F137" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="6">
+      <c r="G137" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="6">
+      <c r="H137" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4144,28 +4192,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="6">
+      <c r="B139" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="6">
+      <c r="C139" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="6">
+      <c r="D139" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="6">
+      <c r="E139" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="6">
+      <c r="F139" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="6">
+      <c r="G139" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="6">
+      <c r="H139" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="6">
+      <c r="I139" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4282,10 +4330,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="6" t="s">
+      <c r="J143" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4329,28 +4377,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="6">
+      <c r="A145" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="6">
+      <c r="B145" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="6">
+      <c r="C145" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="6">
+      <c r="E145" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="6">
+      <c r="F145" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="6">
+      <c r="G145" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="6">
+      <c r="H145" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4375,28 +4423,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="6">
+      <c r="B147" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="6">
+      <c r="C147" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="6">
+      <c r="D147" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="6">
+      <c r="E147" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="6">
+      <c r="F147" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="6">
+      <c r="G147" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="6">
+      <c r="H147" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="6">
+      <c r="I147" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4484,10 +4532,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="6" t="s">
+      <c r="J150" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4531,28 +4579,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="6">
+      <c r="A152" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="6">
+      <c r="B152" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="6">
+      <c r="C152" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="6">
+      <c r="E152" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="6">
+      <c r="F152" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="6">
+      <c r="G152" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="6">
+      <c r="H152" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4577,28 +4625,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="6">
+      <c r="B154" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="6">
+      <c r="C154" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="6">
+      <c r="D154" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="6">
+      <c r="E154" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="6">
+      <c r="F154" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="6">
+      <c r="G154" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="6">
+      <c r="H154" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="6">
+      <c r="I154" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4686,10 +4734,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="6" t="s">
+      <c r="J157" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4733,28 +4781,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="6">
+      <c r="A159" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="6">
+      <c r="B159" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="6">
+      <c r="C159" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="6">
+      <c r="E159" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="6">
+      <c r="F159" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="6">
+      <c r="G159" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="6">
+      <c r="H159" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4779,28 +4827,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="6">
+      <c r="B161" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="6">
+      <c r="C161" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="6">
+      <c r="D161" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="6">
+      <c r="E161" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="6">
+      <c r="F161" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="6">
+      <c r="G161" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="6">
+      <c r="H161" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="6">
+      <c r="I161" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -4888,10 +4936,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="6" t="s">
+      <c r="J164" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4935,28 +4983,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="6">
+      <c r="A166" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="6">
+      <c r="B166" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="6">
+      <c r="C166" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="6">
+      <c r="E166" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="6">
+      <c r="F166" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="6">
+      <c r="G166" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="6">
+      <c r="H166" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -4981,28 +5029,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="6">
+      <c r="B168" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="6">
+      <c r="C168" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="6">
+      <c r="D168" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="6">
+      <c r="E168" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="6">
+      <c r="F168" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="6">
+      <c r="G168" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="6">
+      <c r="H168" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="6">
+      <c r="I168" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5090,10 +5138,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="6" t="s">
+      <c r="J171" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5137,28 +5185,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="6">
+      <c r="A173" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="6">
+      <c r="B173" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="6">
+      <c r="C173" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="6">
+      <c r="E173" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="6">
+      <c r="F173" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="6">
+      <c r="G173" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="6">
+      <c r="H173" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5183,28 +5231,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="6">
+      <c r="B175" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="6">
+      <c r="C175" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="6">
+      <c r="D175" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="6">
+      <c r="E175" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="6">
+      <c r="F175" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="6">
+      <c r="G175" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="6">
+      <c r="H175" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="6">
+      <c r="I175" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5321,10 +5369,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="6" t="s">
+      <c r="J179" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5368,28 +5416,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="6">
+      <c r="A181" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="6">
+      <c r="B181" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="6">
+      <c r="C181" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="6">
+      <c r="E181" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="6">
+      <c r="F181" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="6">
+      <c r="G181" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="6">
+      <c r="H181" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5414,28 +5462,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="6">
+      <c r="B183" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="6">
+      <c r="C183" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="6">
+      <c r="D183" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="6">
+      <c r="E183" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="6">
+      <c r="F183" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="6">
+      <c r="G183" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="6">
+      <c r="H183" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="6">
+      <c r="I183" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5523,10 +5571,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="6" t="s">
+      <c r="J186" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5570,28 +5618,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="6">
+      <c r="A188" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="6">
+      <c r="B188" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="6">
+      <c r="C188" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="6">
+      <c r="E188" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="6">
+      <c r="F188" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="6">
+      <c r="G188" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="6">
+      <c r="H188" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5616,28 +5664,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="6">
+      <c r="B190" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="6">
+      <c r="C190" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="6">
+      <c r="D190" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="6">
+      <c r="E190" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="6">
+      <c r="F190" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="6">
+      <c r="G190" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="6">
+      <c r="H190" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="6">
+      <c r="I190" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5725,10 +5773,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="6" t="s">
+      <c r="J193" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5772,28 +5820,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="6">
+      <c r="A195" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="6">
+      <c r="B195" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="6">
+      <c r="C195" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="6">
+      <c r="E195" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="6">
+      <c r="F195" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="6">
+      <c r="G195" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="6">
+      <c r="H195" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -5818,28 +5866,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="6">
+      <c r="B197" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="6">
+      <c r="C197" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="6">
+      <c r="D197" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="6">
+      <c r="E197" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="6">
+      <c r="F197" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="6">
+      <c r="G197" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="6">
+      <c r="H197" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="6">
+      <c r="I197" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -5927,10 +5975,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="6" t="s">
+      <c r="J200" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5974,28 +6022,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="6">
+      <c r="A202" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="6">
+      <c r="B202" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="6">
+      <c r="C202" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="6">
+      <c r="E202" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="6">
+      <c r="F202" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="6">
+      <c r="G202" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="6">
+      <c r="H202" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6020,28 +6068,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="6">
+      <c r="B204" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="6">
+      <c r="C204" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="6">
+      <c r="D204" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="6">
+      <c r="E204" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="6">
+      <c r="F204" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="6">
+      <c r="G204" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="6">
+      <c r="H204" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="6">
+      <c r="I204" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6129,10 +6177,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="6" t="s">
+      <c r="J207" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6176,28 +6224,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="6">
+      <c r="A209" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="6">
+      <c r="B209" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="6">
+      <c r="C209" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="6">
+      <c r="E209" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="6">
+      <c r="F209" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="6">
+      <c r="G209" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="6">
+      <c r="H209" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6222,28 +6270,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="6">
+      <c r="B211" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="6">
+      <c r="C211" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="6">
+      <c r="D211" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="6">
+      <c r="E211" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="6">
+      <c r="F211" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="6">
+      <c r="G211" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="6">
+      <c r="H211" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="6">
+      <c r="I211" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6331,10 +6379,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="6" t="s">
+      <c r="J214" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6378,28 +6426,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="6">
+      <c r="A216" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="6">
+      <c r="B216" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="6">
+      <c r="C216" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="6">
+      <c r="E216" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="6">
+      <c r="F216" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="6">
+      <c r="G216" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="6">
+      <c r="H216" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6424,28 +6472,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="6">
+      <c r="B218" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="6">
+      <c r="C218" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="6">
+      <c r="D218" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="6">
+      <c r="E218" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="6">
+      <c r="F218" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="6">
+      <c r="G218" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="6">
+      <c r="H218" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="6">
+      <c r="I218" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6533,10 +6581,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="6" t="s">
+      <c r="J221" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6580,28 +6628,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="6">
+      <c r="A223" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="6">
+      <c r="B223" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="6">
+      <c r="C223" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="6">
+      <c r="E223" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="6">
+      <c r="F223" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="6">
+      <c r="G223" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="6">
+      <c r="H223" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6626,28 +6674,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="6">
+      <c r="B225" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="6">
+      <c r="C225" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="6">
+      <c r="D225" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="6">
+      <c r="E225" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="6">
+      <c r="F225" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="6">
+      <c r="G225" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="6">
+      <c r="H225" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="6">
+      <c r="I225" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6764,10 +6812,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="6" t="s">
+      <c r="J229" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6811,28 +6859,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="6">
+      <c r="A231" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="6">
+      <c r="B231" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="6">
+      <c r="C231" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="6">
+      <c r="E231" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="6">
+      <c r="F231" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="6">
+      <c r="G231" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="6">
+      <c r="H231" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -6857,28 +6905,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="6">
+      <c r="B233" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="6">
+      <c r="C233" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="6">
+      <c r="D233" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="6">
+      <c r="E233" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="6">
+      <c r="F233" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="6">
+      <c r="G233" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="6">
+      <c r="H233" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="6">
+      <c r="I233" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -6966,10 +7014,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="6" t="s">
+      <c r="J236" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -7013,28 +7061,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="6">
+      <c r="A238" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="6">
+      <c r="B238" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="6">
+      <c r="C238" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="6">
+      <c r="E238" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="6">
+      <c r="F238" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="6">
+      <c r="G238" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="6">
+      <c r="H238" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7059,28 +7107,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="6">
+      <c r="B240" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="6">
+      <c r="C240" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="6">
+      <c r="D240" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="6">
+      <c r="E240" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="6">
+      <c r="F240" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="6">
+      <c r="G240" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="6">
+      <c r="H240" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="6">
+      <c r="I240" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7168,10 +7216,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="6" t="s">
+      <c r="J243" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7215,28 +7263,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="6">
+      <c r="A245" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="6">
+      <c r="B245" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="6">
+      <c r="C245" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="6">
+      <c r="E245" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="6">
+      <c r="F245" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="6">
+      <c r="G245" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="6">
+      <c r="H245" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7261,28 +7309,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="6">
+      <c r="B247" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="6">
+      <c r="C247" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="6">
+      <c r="D247" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="6">
+      <c r="E247" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="6">
+      <c r="F247" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="6">
+      <c r="G247" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="6">
+      <c r="H247" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="6">
+      <c r="I247" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7370,10 +7418,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="6" t="s">
+      <c r="J250" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7417,28 +7465,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="6">
+      <c r="A252" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="6">
+      <c r="B252" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="6">
+      <c r="C252" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="6">
+      <c r="E252" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="6">
+      <c r="F252" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="6">
+      <c r="G252" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="6">
+      <c r="H252" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7463,28 +7511,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="6">
+      <c r="B254" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="6">
+      <c r="C254" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="6">
+      <c r="D254" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="6">
+      <c r="E254" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="6">
+      <c r="F254" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="6">
+      <c r="G254" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="6">
+      <c r="H254" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="6">
+      <c r="I254" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7572,10 +7620,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="6" t="s">
+      <c r="J257" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7619,28 +7667,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="6">
+      <c r="A259" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="6">
+      <c r="B259" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="6">
+      <c r="C259" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="6">
+      <c r="E259" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="6">
+      <c r="F259" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="6">
+      <c r="G259" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="6">
+      <c r="H259" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7665,28 +7713,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="6">
+      <c r="B261" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="6">
+      <c r="C261" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="6">
+      <c r="D261" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="6">
+      <c r="E261" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="6">
+      <c r="F261" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="6">
+      <c r="G261" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="6">
+      <c r="H261" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="6">
+      <c r="I261" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7774,10 +7822,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="6" t="s">
+      <c r="J264" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7821,28 +7869,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="6">
+      <c r="A266" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="6">
+      <c r="B266" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="6">
+      <c r="C266" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="6">
+      <c r="E266" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="6">
+      <c r="F266" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="6">
+      <c r="G266" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="6">
+      <c r="H266" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -7867,28 +7915,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="6">
+      <c r="B268" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="6">
+      <c r="C268" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="6">
+      <c r="D268" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="6">
+      <c r="E268" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="6">
+      <c r="F268" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="6">
+      <c r="G268" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="6">
+      <c r="H268" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="6">
+      <c r="I268" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -7976,10 +8024,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="6" t="s">
+      <c r="J271" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8023,28 +8071,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="6">
+      <c r="A273" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="6">
+      <c r="B273" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="6">
+      <c r="C273" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="6">
+      <c r="E273" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="6">
+      <c r="F273" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="6">
+      <c r="G273" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="6">
+      <c r="H273" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8069,28 +8117,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="6">
+      <c r="B275" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="6">
+      <c r="C275" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="6">
+      <c r="D275" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="6">
+      <c r="E275" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="6">
+      <c r="F275" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="6">
+      <c r="G275" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="6">
+      <c r="H275" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="6">
+      <c r="I275" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8178,10 +8226,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="6" t="s">
+      <c r="J278" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8225,28 +8273,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="6">
+      <c r="A280" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="6">
+      <c r="B280" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="6">
+      <c r="C280" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="6">
+      <c r="E280" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="6">
+      <c r="F280" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="6">
+      <c r="G280" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="6">
+      <c r="H280" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8271,28 +8319,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="6">
+      <c r="B282" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="6">
+      <c r="C282" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="6">
+      <c r="D282" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="6">
+      <c r="E282" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="6">
+      <c r="F282" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="6">
+      <c r="G282" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="6">
+      <c r="H282" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="6">
+      <c r="I282" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8380,10 +8428,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="6" t="s">
+      <c r="J285" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8427,28 +8475,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="6">
+      <c r="A287" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="6">
+      <c r="B287" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="6">
+      <c r="C287" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="6">
+      <c r="E287" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="6">
+      <c r="F287" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="6">
+      <c r="G287" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="6">
+      <c r="H287" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8473,28 +8521,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="6">
+      <c r="B289" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="6">
+      <c r="C289" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="6">
+      <c r="D289" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="6">
+      <c r="E289" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="6">
+      <c r="F289" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="6">
+      <c r="G289" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="6">
+      <c r="H289" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="6">
+      <c r="I289" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8553,10 +8601,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="6" t="s">
+      <c r="J291" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8600,28 +8648,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="6">
+      <c r="A293" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="6">
+      <c r="B293" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="6">
+      <c r="C293" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="6">
+      <c r="E293" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="6">
+      <c r="F293" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="6">
+      <c r="G293" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="6">
+      <c r="H293" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8646,28 +8694,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="6">
+      <c r="B295" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="6">
+      <c r="C295" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="6">
+      <c r="D295" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="6">
+      <c r="E295" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="6">
+      <c r="F295" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="6">
+      <c r="G295" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="6">
+      <c r="H295" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="6">
+      <c r="I295" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8755,10 +8803,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="6" t="s">
+      <c r="J298" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8802,28 +8850,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="6">
+      <c r="A300" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="6">
+      <c r="B300" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="6">
+      <c r="C300" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="6">
+      <c r="E300" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="6">
+      <c r="F300" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="6">
+      <c r="G300" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="6">
+      <c r="H300" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -8848,28 +8896,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="6">
+      <c r="B302" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="6">
+      <c r="C302" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="6">
+      <c r="D302" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="6">
+      <c r="E302" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="6">
+      <c r="F302" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="6">
+      <c r="G302" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="6">
+      <c r="H302" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="6">
+      <c r="I302" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -8957,10 +9005,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="6" t="s">
+      <c r="J305" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -9004,28 +9052,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="6">
+      <c r="A307" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="6">
+      <c r="B307" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="6">
+      <c r="C307" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="6">
+      <c r="E307" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="6">
+      <c r="F307" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="6">
+      <c r="G307" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="6">
+      <c r="H307" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9050,28 +9098,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="6">
+      <c r="B309" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="6">
+      <c r="C309" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="6">
+      <c r="D309" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="6">
+      <c r="E309" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="6">
+      <c r="F309" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="6">
+      <c r="G309" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="6">
+      <c r="H309" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="6">
+      <c r="I309" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9159,10 +9207,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="6" t="s">
+      <c r="J312" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9206,28 +9254,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="6">
+      <c r="A314" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="6">
+      <c r="B314" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="6">
+      <c r="C314" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="6">
+      <c r="E314" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="6">
+      <c r="F314" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="6">
+      <c r="G314" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="6">
+      <c r="H314" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9252,28 +9300,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="6">
+      <c r="B316" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="6">
+      <c r="C316" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="6">
+      <c r="D316" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="6">
+      <c r="E316" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="6">
+      <c r="F316" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="6">
+      <c r="G316" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="6">
+      <c r="H316" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="6">
+      <c r="I316" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9390,10 +9438,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="6" t="s">
+      <c r="J320" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9437,28 +9485,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="6">
+      <c r="A322" t="s" s="14">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="6">
+      <c r="B322" t="s" s="14">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="6">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="6">
+      <c r="C322" t="s" s="14">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="14">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="6">
+      <c r="E322" t="s" s="14">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="6">
+      <c r="F322" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="6">
+      <c r="G322" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="6">
+      <c r="H322" t="s" s="14">
         <v>16</v>
       </c>
     </row>
@@ -9483,28 +9531,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="6">
+      <c r="B324" t="s" s="14">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="6">
+      <c r="C324" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="6">
+      <c r="D324" t="s" s="14">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="6">
+      <c r="E324" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="6">
+      <c r="F324" t="s" s="14">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="6">
+      <c r="G324" t="s" s="14">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="6">
+      <c r="H324" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="6">
+      <c r="I324" t="s" s="14">
         <v>11</v>
       </c>
     </row>
@@ -9563,10 +9611,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="6" t="s">
+      <c r="J326" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="14" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c107_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11564" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15694" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -193,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -209,6 +234,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -231,26 +261,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true">
-      <c r="A1" t="s" s="14">
+    <row r="1" s="19" customFormat="true">
+      <c r="A1" t="s" s="19">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="14">
+      <c r="B1" t="s" s="19">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="14">
+      <c r="C1" t="s" s="19">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="14">
+      <c r="D1" t="s" s="19">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="14">
+      <c r="E1" t="s" s="19">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="14">
+      <c r="F1" t="s" s="19">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="14">
+      <c r="G1" t="s" s="19">
         <v>7</v>
       </c>
     </row>
@@ -278,28 +308,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="14">
+      <c r="A3" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="14">
+      <c r="C3" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="14">
+      <c r="E3" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="F3" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="14">
+      <c r="G3" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -324,28 +354,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="14">
+      <c r="B5" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="14">
+      <c r="C5" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="14">
+      <c r="E5" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="F5" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="14">
+      <c r="G5" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="14">
+      <c r="H5" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="I5" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -433,10 +463,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="J8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -480,28 +510,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="14">
+      <c r="A10" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="14">
+      <c r="B10" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="14">
+      <c r="C10" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="14">
+      <c r="E10" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="14">
+      <c r="F10" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="14">
+      <c r="G10" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="14">
+      <c r="H10" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -526,28 +556,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="14">
+      <c r="B12" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="14">
+      <c r="C12" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="14">
+      <c r="D12" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="14">
+      <c r="E12" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="14">
+      <c r="F12" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="14">
+      <c r="G12" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="14">
+      <c r="H12" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="14">
+      <c r="I12" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -635,10 +665,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="J15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -682,28 +712,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="14">
+      <c r="A17" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="14">
+      <c r="B17" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="14">
+      <c r="C17" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="14">
+      <c r="E17" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="14">
+      <c r="F17" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="14">
+      <c r="G17" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="14">
+      <c r="H17" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -728,28 +758,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="14">
+      <c r="B19" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="14">
+      <c r="C19" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="14">
+      <c r="D19" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="14">
+      <c r="E19" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="14">
+      <c r="F19" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="14">
+      <c r="G19" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="14">
+      <c r="H19" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="14">
+      <c r="I19" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -837,10 +867,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="14" t="s">
+      <c r="J22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -884,28 +914,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="14">
+      <c r="A24" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="14">
+      <c r="B24" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="14">
+      <c r="C24" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="14">
+      <c r="E24" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="14">
+      <c r="F24" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="14">
+      <c r="G24" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="14">
+      <c r="H24" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -930,28 +960,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="14">
+      <c r="B26" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="14">
+      <c r="C26" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="14">
+      <c r="D26" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="14">
+      <c r="E26" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="14">
+      <c r="F26" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="14">
+      <c r="G26" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="14">
+      <c r="H26" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="14">
+      <c r="I26" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1068,10 +1098,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="14" t="s">
+      <c r="J30" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1115,28 +1145,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="14">
+      <c r="A32" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="14">
+      <c r="B32" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="14">
+      <c r="C32" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="14">
+      <c r="E32" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="14">
+      <c r="F32" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="14">
+      <c r="G32" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="14">
+      <c r="H32" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1161,28 +1191,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="14">
+      <c r="B34" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="14">
+      <c r="C34" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="14">
+      <c r="D34" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="14">
+      <c r="E34" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="14">
+      <c r="F34" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="14">
+      <c r="G34" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="14">
+      <c r="H34" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="14">
+      <c r="I34" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1299,10 +1329,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="14" t="s">
+      <c r="J38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1346,28 +1376,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="14">
+      <c r="A40" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="14">
+      <c r="B40" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="14">
+      <c r="C40" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="14">
+      <c r="E40" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="14">
+      <c r="F40" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="14">
+      <c r="G40" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="14">
+      <c r="H40" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1392,28 +1422,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="14">
+      <c r="B42" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="14">
+      <c r="C42" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="14">
+      <c r="D42" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="14">
+      <c r="E42" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="14">
+      <c r="F42" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="14">
+      <c r="G42" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="14">
+      <c r="H42" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="14">
+      <c r="I42" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1530,10 +1560,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="14" t="s">
+      <c r="J46" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1577,28 +1607,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="14">
+      <c r="A48" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="14">
+      <c r="B48" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="14">
+      <c r="C48" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="14">
+      <c r="E48" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="14">
+      <c r="F48" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="14">
+      <c r="G48" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="14">
+      <c r="H48" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1623,28 +1653,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="14">
+      <c r="B50" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="14">
+      <c r="C50" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="14">
+      <c r="D50" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="14">
+      <c r="E50" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="14">
+      <c r="F50" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="14">
+      <c r="G50" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="14">
+      <c r="H50" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="14">
+      <c r="I50" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1761,10 +1791,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="14" t="s">
+      <c r="J54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1808,28 +1838,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="14">
+      <c r="A56" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="14">
+      <c r="B56" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="14">
+      <c r="C56" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="14">
+      <c r="E56" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="14">
+      <c r="F56" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="14">
+      <c r="G56" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="14">
+      <c r="H56" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -1854,28 +1884,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="14">
+      <c r="B58" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="14">
+      <c r="C58" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="14">
+      <c r="D58" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="14">
+      <c r="E58" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="14">
+      <c r="F58" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="14">
+      <c r="G58" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="14">
+      <c r="H58" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="14">
+      <c r="I58" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -1992,10 +2022,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="14" t="s">
+      <c r="J62" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -2039,28 +2069,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="14">
+      <c r="A64" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="14">
+      <c r="B64" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="14">
+      <c r="C64" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="14">
+      <c r="E64" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="14">
+      <c r="F64" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="14">
+      <c r="G64" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="14">
+      <c r="H64" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2085,28 +2115,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="14">
+      <c r="B66" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="14">
+      <c r="C66" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="14">
+      <c r="D66" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="14">
+      <c r="E66" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="14">
+      <c r="F66" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="14">
+      <c r="G66" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="14">
+      <c r="H66" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="14">
+      <c r="I66" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2194,10 +2224,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="14" t="s">
+      <c r="J69" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2241,28 +2271,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="14">
+      <c r="A71" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="14">
+      <c r="B71" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="14">
+      <c r="C71" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="14">
+      <c r="E71" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="14">
+      <c r="F71" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="14">
+      <c r="G71" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="14">
+      <c r="H71" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2287,28 +2317,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="14">
+      <c r="B73" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="14">
+      <c r="C73" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="14">
+      <c r="D73" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="14">
+      <c r="E73" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="14">
+      <c r="F73" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="14">
+      <c r="G73" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="14">
+      <c r="H73" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="14">
+      <c r="I73" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2396,10 +2426,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="14" t="s">
+      <c r="J76" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2443,28 +2473,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="14">
+      <c r="A78" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="14">
+      <c r="B78" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="14">
+      <c r="C78" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="14">
+      <c r="E78" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="14">
+      <c r="F78" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="14">
+      <c r="G78" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="14">
+      <c r="H78" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2489,28 +2519,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="14">
+      <c r="B80" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="14">
+      <c r="C80" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="14">
+      <c r="D80" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="14">
+      <c r="E80" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="14">
+      <c r="F80" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="14">
+      <c r="G80" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="14">
+      <c r="H80" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="14">
+      <c r="I80" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2598,10 +2628,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="14" t="s">
+      <c r="J83" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2645,28 +2675,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="14">
+      <c r="A85" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="14">
+      <c r="B85" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="14">
+      <c r="C85" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="14">
+      <c r="E85" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="14">
+      <c r="F85" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="14">
+      <c r="G85" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="14">
+      <c r="H85" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2691,28 +2721,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="14">
+      <c r="B87" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="14">
+      <c r="C87" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="14">
+      <c r="D87" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="14">
+      <c r="E87" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="14">
+      <c r="F87" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="14">
+      <c r="G87" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="14">
+      <c r="H87" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="14">
+      <c r="I87" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -2800,10 +2830,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="14" t="s">
+      <c r="J90" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2847,28 +2877,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="14">
+      <c r="A92" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="14">
+      <c r="B92" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="14">
+      <c r="C92" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="14">
+      <c r="E92" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="14">
+      <c r="F92" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="14">
+      <c r="G92" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="14">
+      <c r="H92" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -2893,28 +2923,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="14">
+      <c r="B94" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="14">
+      <c r="C94" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="14">
+      <c r="D94" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="14">
+      <c r="E94" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="14">
+      <c r="F94" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="14">
+      <c r="G94" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="14">
+      <c r="H94" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="14">
+      <c r="I94" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3002,10 +3032,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="14" t="s">
+      <c r="J97" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -3049,28 +3079,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="14">
+      <c r="A99" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="14">
+      <c r="B99" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="14">
+      <c r="C99" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="14">
+      <c r="E99" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="14">
+      <c r="F99" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="14">
+      <c r="G99" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="14">
+      <c r="H99" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3095,28 +3125,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="14">
+      <c r="B101" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="14">
+      <c r="C101" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="14">
+      <c r="D101" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="14">
+      <c r="E101" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="14">
+      <c r="F101" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="14">
+      <c r="G101" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="14">
+      <c r="H101" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="14">
+      <c r="I101" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3233,10 +3263,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="14" t="s">
+      <c r="J105" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3280,28 +3310,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="14">
+      <c r="A107" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="14">
+      <c r="B107" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="14">
+      <c r="C107" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="14">
+      <c r="E107" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="14">
+      <c r="F107" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="14">
+      <c r="G107" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="14">
+      <c r="H107" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3326,28 +3356,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="14">
+      <c r="B109" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="14">
+      <c r="C109" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="14">
+      <c r="D109" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="14">
+      <c r="E109" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="14">
+      <c r="F109" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="14">
+      <c r="G109" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="14">
+      <c r="H109" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="14">
+      <c r="I109" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3435,10 +3465,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="14" t="s">
+      <c r="J112" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3482,28 +3512,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="14">
+      <c r="A114" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="14">
+      <c r="B114" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="14">
+      <c r="C114" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="14">
+      <c r="E114" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="14">
+      <c r="F114" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="14">
+      <c r="G114" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="14">
+      <c r="H114" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3528,28 +3558,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="14">
+      <c r="B116" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="14">
+      <c r="C116" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="14">
+      <c r="D116" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="14">
+      <c r="E116" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="14">
+      <c r="F116" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="14">
+      <c r="G116" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="14">
+      <c r="H116" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="14">
+      <c r="I116" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3666,10 +3696,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="14" t="s">
+      <c r="J120" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3713,28 +3743,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="14">
+      <c r="A122" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="14">
+      <c r="B122" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="14">
+      <c r="C122" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="14">
+      <c r="E122" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="14">
+      <c r="F122" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="14">
+      <c r="G122" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="14">
+      <c r="H122" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3759,28 +3789,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="14">
+      <c r="B124" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="14">
+      <c r="C124" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="14">
+      <c r="D124" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="14">
+      <c r="E124" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="14">
+      <c r="F124" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="14">
+      <c r="G124" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="14">
+      <c r="H124" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="14">
+      <c r="I124" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -3897,10 +3927,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="14" t="s">
+      <c r="J128" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3944,28 +3974,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="14">
+      <c r="A130" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="14">
+      <c r="B130" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="14">
+      <c r="C130" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="14">
+      <c r="E130" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="14">
+      <c r="F130" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="14">
+      <c r="G130" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="14">
+      <c r="H130" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -3990,28 +4020,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="14">
+      <c r="B132" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="14">
+      <c r="C132" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="14">
+      <c r="D132" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="14">
+      <c r="E132" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="14">
+      <c r="F132" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="14">
+      <c r="G132" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="14">
+      <c r="H132" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="14">
+      <c r="I132" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4099,10 +4129,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="14" t="s">
+      <c r="J135" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4146,28 +4176,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="14">
+      <c r="A137" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="14">
+      <c r="B137" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="14">
+      <c r="C137" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="14">
+      <c r="E137" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="14">
+      <c r="F137" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="14">
+      <c r="G137" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="14">
+      <c r="H137" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4192,28 +4222,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="14">
+      <c r="B139" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="14">
+      <c r="C139" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="14">
+      <c r="D139" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="14">
+      <c r="E139" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="14">
+      <c r="F139" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="14">
+      <c r="G139" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="14">
+      <c r="H139" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="14">
+      <c r="I139" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4330,10 +4360,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="14" t="s">
+      <c r="J143" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4377,28 +4407,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="14">
+      <c r="A145" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="14">
+      <c r="B145" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="14">
+      <c r="C145" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="14">
+      <c r="E145" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="14">
+      <c r="F145" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="14">
+      <c r="G145" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="14">
+      <c r="H145" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4423,28 +4453,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="14">
+      <c r="B147" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="14">
+      <c r="C147" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="14">
+      <c r="D147" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="14">
+      <c r="E147" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="14">
+      <c r="F147" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="14">
+      <c r="G147" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="14">
+      <c r="H147" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="14">
+      <c r="I147" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4532,10 +4562,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="14" t="s">
+      <c r="J150" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4579,28 +4609,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="14">
+      <c r="A152" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="14">
+      <c r="B152" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="14">
+      <c r="C152" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="14">
+      <c r="E152" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="14">
+      <c r="F152" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="14">
+      <c r="G152" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="14">
+      <c r="H152" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4625,28 +4655,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="14">
+      <c r="B154" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="14">
+      <c r="C154" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="14">
+      <c r="D154" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="14">
+      <c r="E154" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="14">
+      <c r="F154" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="14">
+      <c r="G154" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="14">
+      <c r="H154" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="14">
+      <c r="I154" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4734,10 +4764,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="14" t="s">
+      <c r="J157" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4781,28 +4811,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="14">
+      <c r="A159" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="14">
+      <c r="B159" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="14">
+      <c r="C159" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="14">
+      <c r="E159" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="14">
+      <c r="F159" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="14">
+      <c r="G159" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="14">
+      <c r="H159" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -4827,28 +4857,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="14">
+      <c r="B161" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="14">
+      <c r="C161" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="14">
+      <c r="D161" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="14">
+      <c r="E161" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="14">
+      <c r="F161" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="14">
+      <c r="G161" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="14">
+      <c r="H161" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="14">
+      <c r="I161" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -4936,10 +4966,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="14" t="s">
+      <c r="J164" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4983,28 +5013,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="14">
+      <c r="A166" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="14">
+      <c r="B166" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="14">
+      <c r="C166" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="14">
+      <c r="E166" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="14">
+      <c r="F166" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="14">
+      <c r="G166" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="14">
+      <c r="H166" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5029,28 +5059,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="14">
+      <c r="B168" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="14">
+      <c r="C168" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="14">
+      <c r="D168" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="14">
+      <c r="E168" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="14">
+      <c r="F168" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="14">
+      <c r="G168" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="14">
+      <c r="H168" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="14">
+      <c r="I168" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5138,10 +5168,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="14" t="s">
+      <c r="J171" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5185,28 +5215,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="14">
+      <c r="A173" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="14">
+      <c r="B173" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="14">
+      <c r="C173" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="14">
+      <c r="E173" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="14">
+      <c r="F173" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="14">
+      <c r="G173" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="14">
+      <c r="H173" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5231,28 +5261,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="14">
+      <c r="B175" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="14">
+      <c r="C175" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="14">
+      <c r="D175" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="14">
+      <c r="E175" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="14">
+      <c r="F175" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="14">
+      <c r="G175" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="14">
+      <c r="H175" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="14">
+      <c r="I175" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5369,10 +5399,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="14" t="s">
+      <c r="J179" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5416,28 +5446,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="14">
+      <c r="A181" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="14">
+      <c r="B181" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="14">
+      <c r="C181" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="14">
+      <c r="E181" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="14">
+      <c r="F181" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="14">
+      <c r="G181" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="14">
+      <c r="H181" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5462,28 +5492,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="14">
+      <c r="B183" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="14">
+      <c r="C183" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="14">
+      <c r="D183" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="14">
+      <c r="E183" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="14">
+      <c r="F183" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="14">
+      <c r="G183" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="14">
+      <c r="H183" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="14">
+      <c r="I183" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5571,10 +5601,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="14" t="s">
+      <c r="J186" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5618,28 +5648,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="14">
+      <c r="A188" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="14">
+      <c r="B188" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="14">
+      <c r="C188" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="14">
+      <c r="E188" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="14">
+      <c r="F188" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="14">
+      <c r="G188" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="14">
+      <c r="H188" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5664,28 +5694,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="14">
+      <c r="B190" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="14">
+      <c r="C190" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="14">
+      <c r="D190" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="14">
+      <c r="E190" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="14">
+      <c r="F190" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="14">
+      <c r="G190" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="14">
+      <c r="H190" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="14">
+      <c r="I190" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5773,10 +5803,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="14" t="s">
+      <c r="J193" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5820,28 +5850,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="14">
+      <c r="A195" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="14">
+      <c r="B195" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="14">
+      <c r="C195" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="14">
+      <c r="E195" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="14">
+      <c r="F195" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="14">
+      <c r="G195" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="14">
+      <c r="H195" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -5866,28 +5896,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="14">
+      <c r="B197" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="14">
+      <c r="C197" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="14">
+      <c r="D197" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="14">
+      <c r="E197" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="14">
+      <c r="F197" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="14">
+      <c r="G197" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="14">
+      <c r="H197" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="14">
+      <c r="I197" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -5975,10 +6005,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="14" t="s">
+      <c r="J200" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -6022,28 +6052,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="14">
+      <c r="A202" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="14">
+      <c r="B202" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="14">
+      <c r="C202" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="14">
+      <c r="E202" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="14">
+      <c r="F202" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="14">
+      <c r="G202" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="14">
+      <c r="H202" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6068,28 +6098,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="14">
+      <c r="B204" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="14">
+      <c r="C204" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="14">
+      <c r="D204" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="14">
+      <c r="E204" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="14">
+      <c r="F204" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="14">
+      <c r="G204" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="14">
+      <c r="H204" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="14">
+      <c r="I204" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6177,10 +6207,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="14" t="s">
+      <c r="J207" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6224,28 +6254,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="14">
+      <c r="A209" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="14">
+      <c r="B209" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="14">
+      <c r="C209" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="14">
+      <c r="E209" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="14">
+      <c r="F209" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="14">
+      <c r="G209" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="14">
+      <c r="H209" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6270,28 +6300,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="14">
+      <c r="B211" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="14">
+      <c r="C211" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="14">
+      <c r="D211" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="14">
+      <c r="E211" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="14">
+      <c r="F211" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="14">
+      <c r="G211" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="14">
+      <c r="H211" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="14">
+      <c r="I211" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6379,10 +6409,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="14" t="s">
+      <c r="J214" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6426,28 +6456,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="14">
+      <c r="A216" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="14">
+      <c r="B216" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="14">
+      <c r="C216" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="14">
+      <c r="E216" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="14">
+      <c r="F216" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="14">
+      <c r="G216" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="14">
+      <c r="H216" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6472,28 +6502,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="14">
+      <c r="B218" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="14">
+      <c r="C218" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="14">
+      <c r="D218" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="14">
+      <c r="E218" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="14">
+      <c r="F218" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="14">
+      <c r="G218" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="14">
+      <c r="H218" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="14">
+      <c r="I218" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6581,10 +6611,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="14" t="s">
+      <c r="J221" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6628,28 +6658,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="14">
+      <c r="A223" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="14">
+      <c r="B223" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="14">
+      <c r="C223" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="14">
+      <c r="E223" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="14">
+      <c r="F223" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="14">
+      <c r="G223" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="14">
+      <c r="H223" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6674,28 +6704,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="14">
+      <c r="B225" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="14">
+      <c r="C225" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="14">
+      <c r="D225" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="14">
+      <c r="E225" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="14">
+      <c r="F225" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="14">
+      <c r="G225" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="14">
+      <c r="H225" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="14">
+      <c r="I225" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6812,10 +6842,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="14" t="s">
+      <c r="J229" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6859,28 +6889,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="14">
+      <c r="A231" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="14">
+      <c r="B231" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="14">
+      <c r="C231" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="14">
+      <c r="E231" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="14">
+      <c r="F231" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="14">
+      <c r="G231" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="14">
+      <c r="H231" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -6905,28 +6935,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="14">
+      <c r="B233" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="14">
+      <c r="C233" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="14">
+      <c r="D233" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="14">
+      <c r="E233" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="14">
+      <c r="F233" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="14">
+      <c r="G233" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="14">
+      <c r="H233" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="14">
+      <c r="I233" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7014,10 +7044,10 @@
       <c r="I236">
         <f>((C236-C235)^2+(D236- D235)^2)^.5</f>
       </c>
-      <c r="J236" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K236" s="14" t="s">
+      <c r="J236" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K236" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L236" t="n">
@@ -7061,28 +7091,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="s" s="14">
+      <c r="A238" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B238" t="s" s="14">
+      <c r="B238" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C238" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D238" t="s" s="14">
+      <c r="C238" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D238" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E238" t="s" s="14">
+      <c r="E238" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F238" t="s" s="14">
+      <c r="F238" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G238" t="s" s="14">
+      <c r="G238" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H238" t="s" s="14">
+      <c r="H238" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7107,28 +7137,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" t="s" s="14">
+      <c r="B240" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C240" t="s" s="14">
+      <c r="C240" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D240" t="s" s="14">
+      <c r="D240" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E240" t="s" s="14">
+      <c r="E240" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F240" t="s" s="14">
+      <c r="F240" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G240" t="s" s="14">
+      <c r="G240" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H240" t="s" s="14">
+      <c r="H240" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I240" t="s" s="14">
+      <c r="I240" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7216,10 +7246,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="14" t="s">
+      <c r="J243" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7263,28 +7293,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="14">
+      <c r="A245" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="14">
+      <c r="B245" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="14">
+      <c r="C245" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="14">
+      <c r="E245" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="14">
+      <c r="F245" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="14">
+      <c r="G245" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="14">
+      <c r="H245" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7309,28 +7339,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="14">
+      <c r="B247" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="14">
+      <c r="C247" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="14">
+      <c r="D247" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="14">
+      <c r="E247" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="14">
+      <c r="F247" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="14">
+      <c r="G247" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="14">
+      <c r="H247" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="14">
+      <c r="I247" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7418,10 +7448,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="14" t="s">
+      <c r="J250" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7465,28 +7495,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="14">
+      <c r="A252" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="14">
+      <c r="B252" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="14">
+      <c r="C252" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="14">
+      <c r="E252" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="14">
+      <c r="F252" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="14">
+      <c r="G252" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="14">
+      <c r="H252" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7511,28 +7541,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="14">
+      <c r="B254" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="14">
+      <c r="C254" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="14">
+      <c r="D254" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="14">
+      <c r="E254" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="14">
+      <c r="F254" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="14">
+      <c r="G254" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="14">
+      <c r="H254" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="14">
+      <c r="I254" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7620,10 +7650,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="14" t="s">
+      <c r="J257" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7667,28 +7697,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="14">
+      <c r="A259" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="14">
+      <c r="B259" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="14">
+      <c r="C259" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="14">
+      <c r="E259" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="14">
+      <c r="F259" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="14">
+      <c r="G259" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="14">
+      <c r="H259" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7713,28 +7743,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="14">
+      <c r="B261" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="14">
+      <c r="C261" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="14">
+      <c r="D261" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="14">
+      <c r="E261" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="14">
+      <c r="F261" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="14">
+      <c r="G261" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="14">
+      <c r="H261" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="14">
+      <c r="I261" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7822,10 +7852,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="14" t="s">
+      <c r="J264" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7869,28 +7899,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="14">
+      <c r="A266" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="14">
+      <c r="B266" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="14">
+      <c r="C266" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="14">
+      <c r="E266" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="14">
+      <c r="F266" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="14">
+      <c r="G266" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="14">
+      <c r="H266" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7915,28 +7945,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="14">
+      <c r="B268" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="14">
+      <c r="C268" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="14">
+      <c r="D268" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="14">
+      <c r="E268" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="14">
+      <c r="F268" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="14">
+      <c r="G268" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="14">
+      <c r="H268" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="14">
+      <c r="I268" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8024,10 +8054,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="14" t="s">
+      <c r="J271" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8071,28 +8101,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="14">
+      <c r="A273" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="14">
+      <c r="B273" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="14">
+      <c r="C273" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="14">
+      <c r="E273" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="14">
+      <c r="F273" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="14">
+      <c r="G273" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="14">
+      <c r="H273" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8117,28 +8147,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="14">
+      <c r="B275" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="14">
+      <c r="C275" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="14">
+      <c r="D275" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="14">
+      <c r="E275" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="14">
+      <c r="F275" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="14">
+      <c r="G275" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="14">
+      <c r="H275" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="14">
+      <c r="I275" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8226,10 +8256,10 @@
       <c r="I278">
         <f>((C278-C277)^2+(D278- D277)^2)^.5</f>
       </c>
-      <c r="J278" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K278" s="14" t="s">
+      <c r="J278" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K278" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L278" t="n">
@@ -8273,28 +8303,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="s" s="14">
+      <c r="A280" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B280" t="s" s="14">
+      <c r="B280" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C280" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D280" t="s" s="14">
+      <c r="C280" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D280" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E280" t="s" s="14">
+      <c r="E280" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F280" t="s" s="14">
+      <c r="F280" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G280" t="s" s="14">
+      <c r="G280" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H280" t="s" s="14">
+      <c r="H280" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8319,28 +8349,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="B282" t="s" s="14">
+      <c r="B282" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C282" t="s" s="14">
+      <c r="C282" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D282" t="s" s="14">
+      <c r="D282" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E282" t="s" s="14">
+      <c r="E282" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F282" t="s" s="14">
+      <c r="F282" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G282" t="s" s="14">
+      <c r="G282" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H282" t="s" s="14">
+      <c r="H282" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I282" t="s" s="14">
+      <c r="I282" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8428,10 +8458,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="14" t="s">
+      <c r="J285" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8475,28 +8505,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="14">
+      <c r="A287" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="14">
+      <c r="B287" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="14">
+      <c r="C287" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="14">
+      <c r="E287" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="14">
+      <c r="F287" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="14">
+      <c r="G287" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="14">
+      <c r="H287" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8521,28 +8551,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="14">
+      <c r="B289" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="14">
+      <c r="C289" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="14">
+      <c r="D289" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="14">
+      <c r="E289" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="14">
+      <c r="F289" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="14">
+      <c r="G289" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="14">
+      <c r="H289" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="14">
+      <c r="I289" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8601,10 +8631,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="14" t="s">
+      <c r="J291" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8648,28 +8678,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="14">
+      <c r="A293" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="14">
+      <c r="B293" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="14">
+      <c r="C293" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="14">
+      <c r="E293" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="14">
+      <c r="F293" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="14">
+      <c r="G293" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="14">
+      <c r="H293" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8694,28 +8724,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="14">
+      <c r="B295" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="14">
+      <c r="C295" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="14">
+      <c r="D295" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="14">
+      <c r="E295" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="14">
+      <c r="F295" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="14">
+      <c r="G295" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="14">
+      <c r="H295" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="14">
+      <c r="I295" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8803,10 +8833,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="14" t="s">
+      <c r="J298" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8850,28 +8880,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="14">
+      <c r="A300" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="14">
+      <c r="B300" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="14">
+      <c r="C300" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="14">
+      <c r="E300" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="14">
+      <c r="F300" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="14">
+      <c r="G300" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="14">
+      <c r="H300" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8896,28 +8926,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="14">
+      <c r="B302" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="14">
+      <c r="C302" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="14">
+      <c r="D302" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="14">
+      <c r="E302" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="14">
+      <c r="F302" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="14">
+      <c r="G302" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="14">
+      <c r="H302" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="14">
+      <c r="I302" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9005,10 +9035,10 @@
       <c r="I305">
         <f>((C305-C304)^2+(D305- D304)^2)^.5</f>
       </c>
-      <c r="J305" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K305" s="14" t="s">
+      <c r="J305" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K305" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L305" t="n">
@@ -9052,28 +9082,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="s" s="14">
+      <c r="A307" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B307" t="s" s="14">
+      <c r="B307" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C307" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D307" t="s" s="14">
+      <c r="C307" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D307" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E307" t="s" s="14">
+      <c r="E307" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F307" t="s" s="14">
+      <c r="F307" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G307" t="s" s="14">
+      <c r="G307" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H307" t="s" s="14">
+      <c r="H307" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9098,28 +9128,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="B309" t="s" s="14">
+      <c r="B309" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C309" t="s" s="14">
+      <c r="C309" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D309" t="s" s="14">
+      <c r="D309" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E309" t="s" s="14">
+      <c r="E309" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F309" t="s" s="14">
+      <c r="F309" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G309" t="s" s="14">
+      <c r="G309" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H309" t="s" s="14">
+      <c r="H309" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I309" t="s" s="14">
+      <c r="I309" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9207,10 +9237,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="14" t="s">
+      <c r="J312" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9254,28 +9284,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="14">
+      <c r="A314" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="14">
+      <c r="B314" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="14">
+      <c r="C314" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="14">
+      <c r="E314" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="14">
+      <c r="F314" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="14">
+      <c r="G314" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="14">
+      <c r="H314" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9300,28 +9330,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="14">
+      <c r="B316" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="14">
+      <c r="C316" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="14">
+      <c r="D316" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="14">
+      <c r="E316" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="14">
+      <c r="F316" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="14">
+      <c r="G316" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="14">
+      <c r="H316" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="14">
+      <c r="I316" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9438,10 +9468,10 @@
       <c r="I320">
         <f>((C320-C319)^2+(D320- D319)^2)^.5</f>
       </c>
-      <c r="J320" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K320" s="14" t="s">
+      <c r="J320" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K320" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L320" t="n">
@@ -9485,28 +9515,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="s" s="14">
+      <c r="A322" t="s" s="19">
         <v>9</v>
       </c>
-      <c r="B322" t="s" s="14">
+      <c r="B322" t="s" s="19">
         <v>10</v>
       </c>
-      <c r="C322" t="s" s="14">
-        <v>11</v>
-      </c>
-      <c r="D322" t="s" s="14">
+      <c r="C322" t="s" s="19">
+        <v>11</v>
+      </c>
+      <c r="D322" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="E322" t="s" s="14">
+      <c r="E322" t="s" s="19">
         <v>13</v>
       </c>
-      <c r="F322" t="s" s="14">
+      <c r="F322" t="s" s="19">
         <v>14</v>
       </c>
-      <c r="G322" t="s" s="14">
+      <c r="G322" t="s" s="19">
         <v>15</v>
       </c>
-      <c r="H322" t="s" s="14">
+      <c r="H322" t="s" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9531,28 +9561,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="B324" t="s" s="14">
+      <c r="B324" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="C324" t="s" s="14">
+      <c r="C324" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="D324" t="s" s="14">
+      <c r="D324" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="E324" t="s" s="14">
+      <c r="E324" t="s" s="19">
         <v>20</v>
       </c>
-      <c r="F324" t="s" s="14">
+      <c r="F324" t="s" s="19">
         <v>21</v>
       </c>
-      <c r="G324" t="s" s="14">
+      <c r="G324" t="s" s="19">
         <v>22</v>
       </c>
-      <c r="H324" t="s" s="14">
+      <c r="H324" t="s" s="19">
         <v>23</v>
       </c>
-      <c r="I324" t="s" s="14">
+      <c r="I324" t="s" s="19">
         <v>11</v>
       </c>
     </row>
@@ -9611,10 +9641,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="14" t="s">
+      <c r="J326" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="19" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
